--- a/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_6/out_of_sample/additive/ranking_test2/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.598</v>
+        <v>0.595</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.116</v>
+        <v>16.217</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.648</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.666</v>
+        <v>17.008</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.221</v>
+        <v>1.482</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>11.47664747831506</v>
+        <v>12.32059857925832</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>13.40543674939066</v>
+        <v>13.09206561187428</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>20.55079024135413</v>
+        <v>21.58851902615782</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4.117834961014722</v>
+        <v>4.716934370254041</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12.37727603477466</v>
+        <v>13.24951328391429</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.50900788187267</v>
+        <v>15.26946390506599</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.350395205014614</v>
+        <v>8.965843580266665</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.34102940332326</v>
+        <v>28.61580785400347</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.23793711652018</v>
+        <v>30.40050491920731</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.21350295477077</v>
+        <v>12.86014453746349</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.12808203924561</v>
+        <v>16.41921382849547</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.77239588836396</v>
+        <v>17.89428153182654</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.87703781405836</v>
+        <v>15.34090030053007</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8.439346528845</v>
+        <v>10.15028703020321</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>17.2217207813699</v>
+        <v>19.40629580726102</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.96626484460852</v>
+        <v>12.55410730802933</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>21.08179230747787</v>
+        <v>21.83139141580213</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.51330383985918</v>
+        <v>30.12200634031447</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.445413220143482</v>
+        <v>6.632758231200956</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>11.37583104842451</v>
+        <v>11.82168328458085</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>16.07251436425639</v>
+        <v>16.38812588744365</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.963453518521963</v>
+        <v>4.376158152636989</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.87691545683247</v>
+        <v>16.82072461085429</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>19.17143801693115</v>
+        <v>19.93162305966808</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.23193427612787</v>
+        <v>26.54732415369656</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>25.10684642472759</v>
+        <v>25.97525104546283</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.112786511095905</v>
+        <v>4.228720186835112</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.39746006746704</v>
+        <v>29.07933188190738</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>31.3010045552283</v>
+        <v>30.77836438160647</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.120136558175798</v>
+        <v>7.72102526115712</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>40.41031416761169</v>
+        <v>40.84113692968543</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.1768713109354</v>
+        <v>38.57351419179368</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>38.9575147422002</v>
+        <v>40.11726881773077</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>46.04443750430916</v>
+        <v>47.15808466608699</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>47.0439003724135</v>
+        <v>47.93125668626242</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>20.04727025360827</v>
+        <v>22.10008071090102</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.06115686479011</v>
+        <v>29.64425518520707</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31.20848962004126</v>
+        <v>32.58212479616617</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>17.68217501346065</v>
+        <v>18.27203490391843</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.43382111851441</v>
+        <v>28.489739754293</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>32.13893084205433</v>
+        <v>32.75109113377425</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>6.649092263127397</v>
+        <v>7.261627135820962</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.92128384036556</v>
+        <v>26.9915168562335</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.55423961148601</v>
+        <v>34.82351314729037</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41.76674323333407</v>
+        <v>42.85226511149455</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>10.13355323003694</v>
+        <v>10.59705206320959</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.61042209287663</v>
+        <v>22.03308301997034</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.45412101007138</v>
+        <v>26.10276174974541</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>2.433911012092214</v>
+        <v>3.100949609254815</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.97128730107638</v>
+        <v>28.14607989840389</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.54350544895523</v>
+        <v>32.28626593394324</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>8.409637199116325</v>
+        <v>8.689633794756841</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>42.15734839465668</v>
+        <v>43.36629766680187</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>44.51403300114506</v>
+        <v>46.02903935722226</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>43.15539487322287</v>
+        <v>44.01381661491482</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.48322845890577</v>
+        <v>48.80054255166129</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>51.94636224053518</v>
+        <v>52.53150793947985</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>12.70552888647491</v>
+        <v>12.18979122032925</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.8474130550274</v>
+        <v>28.75089178868638</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.90423332034243</v>
+        <v>32.75935154737672</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>12.79103385852092</v>
+        <v>13.27817120596077</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>27.13326101730305</v>
+        <v>28.13171121919759</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>32.65343508398297</v>
+        <v>33.16252870517521</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>6.322746526613855</v>
+        <v>7.04687535258719</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.76148451627249</v>
+        <v>23.77067499255709</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>35.55857472637923</v>
+        <v>36.13450341542626</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>5.291057364370815</v>
+        <v>5.8728273876416</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.99535059868073</v>
+        <v>38.07767328080872</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6.847069205697114</v>
+        <v>7.485312126240093</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>17.2870850114642</v>
+        <v>18.0151756087095</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.68272955276384</v>
+        <v>23.39132084821315</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>2.651253723382361</v>
+        <v>3.417325696959981</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.96570130917355</v>
+        <v>27.4915635412132</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.86402810895262</v>
+        <v>32.56633550624991</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>3.778284639789238</v>
+        <v>4.43939875649388</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>38.32571832138559</v>
+        <v>39.06890714431394</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.38507553186663</v>
+        <v>43.21805351240701</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>32.18949847842951</v>
+        <v>35.55834895343441</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>37.15669704164005</v>
+        <v>39.43690528026993</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.79368168199358</v>
+        <v>44.55460923860185</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>9.829034983740538</v>
+        <v>9.678757846039851</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>18.35644936159342</v>
+        <v>20.37849423393653</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>31.17670063158859</v>
+        <v>32.77655783480765</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>9.771330243876228</v>
+        <v>10.310297514213</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>24.26853075826646</v>
+        <v>24.5974989954639</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>30.93620831207853</v>
+        <v>31.62390252811357</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>6.779045309470828</v>
+        <v>7.306595050918556</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>23.41803193922007</v>
+        <v>23.9935767646429</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.66610053134684</v>
+        <v>35.23622372197543</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>2.360548156885319</v>
+        <v>3.242665047917686</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>34.12960695823507</v>
+        <v>34.75165655242399</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>19.9932111880245</v>
+        <v>20.88529530029525</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>17.5169980101039</v>
+        <v>18.09081989529103</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>35.08972169922907</v>
+        <v>35.45889928095249</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>39.01677318787887</v>
+        <v>39.22870980488938</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>7.293184811037762</v>
+        <v>7.883100806614163</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>14.22467839870085</v>
+        <v>15.11727252740506</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>20.52276016023259</v>
+        <v>21.35481398338903</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>14.30971545668023</v>
+        <v>13.91241635791547</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.86389865072504</v>
+        <v>23.06505879729356</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>31.63227997957494</v>
+        <v>31.81898779365327</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6.214515731669366</v>
+        <v>6.712392758157982</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>9.643818882793447</v>
+        <v>10.33584836823752</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>12.07807162124475</v>
+        <v>13.91786311211152</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>4.29944756938232</v>
+        <v>4.84115571345848</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>17.08163654358644</v>
+        <v>17.69489116163086</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.34000641141117</v>
+        <v>32.8550363522581</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>19.61696691334821</v>
+        <v>20.26541699823014</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>39.26521159196812</v>
+        <v>39.59465979390439</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>44.40595922932733</v>
+        <v>44.51739681807202</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>6.212340429696138</v>
+        <v>7.323056186694444</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>15.09060877500273</v>
+        <v>15.75908919885764</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>24.50544261397199</v>
+        <v>24.6606730825179</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.62414775454832</v>
+        <v>51.32096891833103</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>44.58627864562183</v>
+        <v>46.05440468326935</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>56.24926360956836</v>
+        <v>56.65503589818314</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.50949146970389</v>
+        <v>59.43543120396201</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.73268382287301</v>
+        <v>20.86299529035476</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>50.88055181696943</v>
+        <v>52.25855176895401</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.79964881288296</v>
+        <v>55.31550595406759</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.19630817832634</v>
+        <v>26.04975613390337</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>35.47743333531348</v>
+        <v>35.95608805183444</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>41.73421594405235</v>
+        <v>41.84710637052515</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>8.142948201237999</v>
+        <v>8.723930277597898</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>35.85328733009678</v>
+        <v>35.58021966010177</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>42.11669641570425</v>
+        <v>42.27822516002864</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>8.809051339283943</v>
+        <v>9.106128069282832</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>57.55582435295592</v>
+        <v>57.42202287548021</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>64.43407679742822</v>
+        <v>64.26134765951515</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>68.75493570173637</v>
+        <v>68.38459304262958</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>76.1687686164352</v>
+        <v>75.94683176394544</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.64696815198747</v>
+        <v>80.76352299848146</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>34.0529423102937</v>
+        <v>33.54888277181333</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>69.90063779251744</v>
+        <v>69.94387832228843</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.45805170189379</v>
+        <v>73.24215980880356</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>55.12060727783</v>
+        <v>55.83857661481264</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>37.99199344082174</v>
+        <v>38.36004210076252</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.84601770074758</v>
+        <v>45.59094332963795</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>58.24575318700137</v>
+        <v>58.79731917049909</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>15.94093231372687</v>
+        <v>16.16389692282522</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>47.05282142424518</v>
+        <v>47.50455023521826</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.78439489966443</v>
+        <v>54.25787261611563</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>17.16041746692669</v>
+        <v>17.21860813216102</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>32.79177274779008</v>
+        <v>33.07700562678509</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>40.54429563114911</v>
+        <v>40.73695821446812</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>6.891209173447528</v>
+        <v>7.416395884826805</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.88031513926942</v>
+        <v>33.83092877671953</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>43.57809089800408</v>
+        <v>43.79793811259477</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>8.79297149879438</v>
+        <v>9.030884413926742</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>54.32516634069414</v>
+        <v>54.80270305447279</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>68.86306075746414</v>
+        <v>68.50249415490234</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>65.61262615236561</v>
+        <v>65.3628299863946</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>72.03571711482425</v>
+        <v>71.78120313630676</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.33978998000352</v>
+        <v>80.89190757834204</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>24.0056254448026</v>
+        <v>23.24877763767095</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>62.48187714184397</v>
+        <v>61.45589385688631</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.12395846767608</v>
+        <v>70.65864913089641</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>50.05430467190385</v>
+        <v>50.69571670693981</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>25.14821191490287</v>
+        <v>25.75833170305251</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.06031132584644</v>
+        <v>32.90090133382835</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.08716076685793</v>
+        <v>43.67773082301735</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>11.32946500794592</v>
+        <v>11.69145298514452</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>42.71259451147081</v>
+        <v>42.99591409327896</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>50.98030769198353</v>
+        <v>51.27534798361172</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>14.70821805386502</v>
+        <v>14.68758573664914</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>33.41094948619642</v>
+        <v>33.19700791096433</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>44.27199243580019</v>
+        <v>44.26143767567376</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>7.705915912189901</v>
+        <v>8.206087054375615</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>33.75919405528901</v>
+        <v>33.9152616605988</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>45.98664580474099</v>
+        <v>46.03229756342687</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>3.746777762497103</v>
+        <v>4.261213365366817</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>49.75520391976521</v>
+        <v>49.06602480031698</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>69.0276948259573</v>
+        <v>68.62259998133456</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>55.49973320904663</v>
+        <v>54.84465039921912</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>64.12680870616634</v>
+        <v>62.80548201571435</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>80.58655635060339</v>
+        <v>80.1670051852325</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>15.85715436021378</v>
+        <v>15.48763346942732</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>55.66699405685033</v>
+        <v>55.039923665733</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>71.50133543212648</v>
+        <v>71.13396670319521</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>14.73293205984528</v>
+        <v>16.49319103286195</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.99743408414019</v>
+        <v>20.13346399368172</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.0470934919097</v>
+        <v>28.96431638007507</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>9.590715798066721</v>
+        <v>11.08709008885889</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>23.41113503139712</v>
+        <v>23.20306732707735</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.06648133122872</v>
+        <v>25.41200599860939</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.36251458920469</v>
+        <v>13.71173541358601</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>40.14790516514012</v>
+        <v>38.62548725799937</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>42.9252465168002</v>
+        <v>40.91393929471889</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>21.13802137348743</v>
+        <v>21.89286323355382</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>25.32420841424717</v>
+        <v>24.64230026439471</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>27.87136084563128</v>
+        <v>26.30168199388624</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>21.66596943832835</v>
+        <v>22.36053598656036</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.48994201253642</v>
+        <v>20.92882134788423</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>33.3448922372914</v>
+        <v>33.22781276748846</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>15.1213374278252</v>
+        <v>16.37732250431711</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>27.24159078118106</v>
+        <v>27.24125764290424</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.41710972532356</v>
+        <v>29.89141320872733</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>9.560223381524292</v>
+        <v>10.89552641725234</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>17.98879628048917</v>
+        <v>18.34619751164786</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>20.74407665057938</v>
+        <v>21.17275951244572</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>10.05107396055154</v>
+        <v>11.51337255663439</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.08743889868122</v>
+        <v>27.57604883700702</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>21.74221587059493</v>
+        <v>22.97692679409963</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>32.1871478565175</v>
+        <v>32.10466487474825</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>33.45572095606055</v>
+        <v>32.73603344059043</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>9.723650722044706</v>
+        <v>11.19673224696879</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>36.47825035640861</v>
+        <v>35.36064442113665</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>38.16961305020415</v>
+        <v>36.80254853904359</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>12.42998114843432</v>
+        <v>13.76982742765698</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>50.73776548132053</v>
+        <v>48.72362376974269</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>48.48870510788281</v>
+        <v>46.34462691072524</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.06810461580948</v>
+        <v>43.00570428170277</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>50.35429027882868</v>
+        <v>48.54353351626841</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>50.23340835307039</v>
+        <v>48.29722071896984</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>24.49094223625599</v>
+        <v>26.47536948335506</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>38.44413969060049</v>
+        <v>38.83550542429865</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>40.75157826909698</v>
+        <v>40.79567382225496</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.1486403926929</v>
+        <v>23.13926313772239</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>33.81791090340454</v>
+        <v>33.34306981892355</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.46371180423986</v>
+        <v>33.45923551759257</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10.2496070686598</v>
+        <v>11.50982170971317</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>32.85438919586883</v>
+        <v>32.13008659032317</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.28747824027586</v>
+        <v>33.17067006049285</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>10.88369122476023</v>
+        <v>12.30767117813032</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>48.19991409222857</v>
+        <v>46.51068054730634</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>11.92831538600312</v>
+        <v>13.53123476239081</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>24.14451085803854</v>
+        <v>24.68205553617702</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.5826995064329</v>
+        <v>29.57843827786131</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>8.779968372447097</v>
+        <v>10.45176804012199</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>33.15340444326662</v>
+        <v>32.58597277495564</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>35.83284142388385</v>
+        <v>34.95801547660731</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>10.86480307732518</v>
+        <v>12.52261241193051</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>47.48604830376198</v>
+        <v>45.43665738713656</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.84948419908432</v>
+        <v>46.88998589741393</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>50.05886229404256</v>
+        <v>48.3111640733861</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>54.82964035915375</v>
+        <v>53.12921990531085</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>54.65388806276415</v>
+        <v>52.35659908917691</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>12.62551008855021</v>
+        <v>13.45750363787665</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.1464350831892</v>
+        <v>29.00222144841917</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>33.48203470408779</v>
+        <v>33.97909905736658</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>17.94124342601218</v>
+        <v>18.49709810545703</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>31.31041758830947</v>
+        <v>31.23113901560502</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.54063689038155</v>
+        <v>32.74327757472309</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>9.744107856932462</v>
+        <v>11.24944097748395</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.11927460956214</v>
+        <v>28.79608157127659</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.90920807440465</v>
+        <v>33.23502943097917</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>10.97755503910729</v>
+        <v>12.50087131626424</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>43.25051379791703</v>
+        <v>41.81766153000967</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>10.0155904210588</v>
+        <v>11.92156025683797</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.47922272930574</v>
+        <v>22.97415563490695</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.73431217696485</v>
+        <v>29.43894645977805</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>9.155163630432792</v>
+        <v>10.73131509168126</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>34.02884856281032</v>
+        <v>32.43959383126263</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>38.01128129781787</v>
+        <v>36.86184483901182</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>9.601046375711281</v>
+        <v>11.23139989689413</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>46.96915348145779</v>
+        <v>44.66435069142382</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>49.4223873088156</v>
+        <v>47.19960415761327</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.32007387075729</v>
+        <v>44.11047140245876</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>50.39132142874816</v>
+        <v>47.95887725102224</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>52.49286853360844</v>
+        <v>50.7028001230038</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>11.15846141928511</v>
+        <v>12.75734392378864</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>25.0868035792709</v>
+        <v>25.94376766502937</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>35.8839399382861</v>
+        <v>35.65328198459297</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>15.3751102447418</v>
+        <v>16.13080468847912</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.44769525256108</v>
+        <v>29.02534286072156</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>31.85683664576927</v>
+        <v>32.03811998427172</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>9.787937196400183</v>
+        <v>11.20811256579714</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.82234353573447</v>
+        <v>27.37610203408234</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>32.5013947023429</v>
+        <v>32.57689500397081</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>9.431447488036092</v>
+        <v>10.94672192462732</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>39.24306883797398</v>
+        <v>37.91168662565797</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.27088790352495</v>
+        <v>28.04237125274131</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>24.95624861492075</v>
+        <v>25.15479676172123</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>38.10900880688154</v>
+        <v>37.28440427792357</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>40.73597871100074</v>
+        <v>39.73746210572941</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.74064429846676</v>
+        <v>16.32632463945987</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>25.97922957329532</v>
+        <v>25.49836427241316</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>31.15919690037864</v>
+        <v>30.33883156676743</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.24079949839761</v>
+        <v>18.8338571988991</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>27.88948611722168</v>
+        <v>27.85329019145492</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.46041897982592</v>
+        <v>33.95564885687199</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>9.568711097198019</v>
+        <v>10.87252412052071</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>16.5285686080192</v>
+        <v>17.025044068869</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.39550703890781</v>
+        <v>22.43393415806895</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>10.77229419176463</v>
+        <v>12.0399228011302</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.31958915769629</v>
+        <v>28.42971733519414</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>45.35380446258231</v>
+        <v>43.07929613520496</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.13363768782052</v>
+        <v>27.90647295080425</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>44.99263790657915</v>
+        <v>43.15701196213153</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>47.79573613319464</v>
+        <v>46.29354186703058</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>15.25807915101189</v>
+        <v>15.67506408391378</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>27.16581586587634</v>
+        <v>26.49413942615489</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>37.48085284626776</v>
+        <v>35.87791984046392</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>50.30195249775734</v>
+        <v>49.05034601671654</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>48.05902787753493</v>
+        <v>46.33526091661582</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>54.46675932715164</v>
+        <v>52.63537192463428</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>55.24663533457333</v>
+        <v>53.50338389378602</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>25.68928868507668</v>
+        <v>25.10786858897184</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>51.11932489687661</v>
+        <v>49.34176840154993</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.78925354756758</v>
+        <v>49.69125053685241</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>25.481840302561</v>
+        <v>25.72814437544076</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>10.63618854953248</v>
+        <v>11.95525783910493</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>39.62999598873355</v>
+        <v>38.75922820157055</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.33305917716793</v>
+        <v>39.63870028334709</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>12.07054648683043</v>
+        <v>13.53012518179178</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>56.39488385164186</v>
+        <v>54.43962775701588</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>59.50664669604716</v>
+        <v>57.45448464411318</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>59.52693439154613</v>
+        <v>57.72602352700975</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.25246810381375</v>
+        <v>63.31743810959782</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.00456667447574</v>
+        <v>65.9155151361451</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>31.68585327319484</v>
+        <v>30.6771892043785</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>62.56638711158574</v>
+        <v>60.58612126086188</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>63.34153280499525</v>
+        <v>61.57654388070074</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>51.5406502045563</v>
+        <v>50.44382764771663</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>45.0897035364974</v>
+        <v>43.27064429796552</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>50.4036353405665</v>
+        <v>48.32602703891057</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>54.48089481151807</v>
+        <v>52.88030734327413</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>20.7576856725984</v>
+        <v>20.44984117033781</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>47.56157162606926</v>
+        <v>46.15320193362282</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>48.91144098209691</v>
+        <v>48.13168467431019</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>18.53751718831823</v>
+        <v>19.25651017614578</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>32.65744971894661</v>
+        <v>32.91062273950477</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>37.66158103580749</v>
+        <v>37.72340872664959</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>9.845521248600047</v>
+        <v>11.22187792086632</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.75299170727035</v>
+        <v>34.74113271377477</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>38.87920501040158</v>
+        <v>38.72458037109351</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>12.84283705252184</v>
+        <v>13.9511471708434</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>52.50837736472396</v>
+        <v>50.5608307653503</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>60.76730511603636</v>
+        <v>58.85762131287246</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>58.13633904169475</v>
+        <v>56.4182141753728</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>64.60256702826035</v>
+        <v>62.36040526347975</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>68.70018405214904</v>
+        <v>66.62326494658417</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>22.90989396733312</v>
+        <v>22.60235847617887</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>59.75926015480674</v>
+        <v>56.94449989075695</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>62.65495055467845</v>
+        <v>60.30203224321368</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>47.94644379081913</v>
+        <v>47.01131441617719</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>32.70037195171513</v>
+        <v>31.73810432154248</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>38.26796801967186</v>
+        <v>37.1342808658163</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>42.47764496235612</v>
+        <v>41.83249555305489</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>17.51979857475726</v>
+        <v>17.63841073316216</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>43.82302615913395</v>
+        <v>42.20099798328737</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>47.72834599473063</v>
+        <v>46.68802689131701</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>17.41343286040733</v>
+        <v>18.11958977699472</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.52147025790551</v>
+        <v>32.98957925657587</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.74934654178337</v>
+        <v>40.1467677132465</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.28992077561293</v>
+        <v>11.60808583323684</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>35.46655340499018</v>
+        <v>34.50823904544286</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.98971384490072</v>
+        <v>41.34984196827072</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>10.0650034564102</v>
+        <v>11.56903805391329</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>49.60194725096426</v>
+        <v>47.73391671733942</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>61.01021270558384</v>
+        <v>58.933758811142</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>53.27584643955039</v>
+        <v>51.2603306322172</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>62.24772078325237</v>
+        <v>59.4347963503419</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>68.46805811841921</v>
+        <v>66.17055478261584</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>19.76785558874456</v>
+        <v>19.52915778979073</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>57.67046163903044</v>
+        <v>54.97738559148065</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>64.83776996532579</v>
+        <v>62.49796092150152</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>14.44973812150717</v>
+        <v>15.54857658683027</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>21.30985442248628</v>
+        <v>20.84280573197404</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.22962584346205</v>
+        <v>29.22069396702734</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>4.770183632780725</v>
+        <v>5.814502654183645</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.24547076381938</v>
+        <v>17.07843646850827</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>19.52291375428864</v>
+        <v>19.9620589859466</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>6.388282301699547</v>
+        <v>7.747872872621105</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>40.14138837863177</v>
+        <v>39.18573798137322</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>43.64596760445721</v>
+        <v>42.55211591854617</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>20.91737984012653</v>
+        <v>21.79155453861598</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.71604213526394</v>
+        <v>25.98419283579799</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>27.80869460060728</v>
+        <v>27.24424784310485</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>13.69941976215119</v>
+        <v>14.70198521304337</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.52016400631538</v>
+        <v>18.77894637416945</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.49951282062596</v>
+        <v>26.5177240327276</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.26290116051241</v>
+        <v>15.85454686159972</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.24672815417796</v>
+        <v>27.68583480520697</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>30.53808115448208</v>
+        <v>30.36697965616914</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>5.179084405231329</v>
+        <v>5.911610385811862</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>14.9160407753717</v>
+        <v>15.01777494444412</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>17.84258878511844</v>
+        <v>18.20916966815035</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>6.060703926730344</v>
+        <v>6.921750153230189</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.95950816660602</v>
+        <v>28.05849660651981</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>23.53918873204698</v>
+        <v>25.7908772207108</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>37.27035023628807</v>
+        <v>36.55170809818438</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>35.96572270035014</v>
+        <v>34.93458694534715</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>5.512443461165208</v>
+        <v>6.428884686298524</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.13460493185153</v>
+        <v>35.46408697761512</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>37.3850643374191</v>
+        <v>36.60690746364964</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>6.918487566791455</v>
+        <v>8.141055945296543</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>54.31303997256691</v>
+        <v>52.74214067874223</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>51.43730630420065</v>
+        <v>50.07889890515482</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>46.23693048874854</v>
+        <v>46.06167982103031</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>54.55242967281371</v>
+        <v>53.35744222789736</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>55.05326907357207</v>
+        <v>53.60185855143337</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>20.41259068618772</v>
+        <v>21.04912835627948</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.95923936228044</v>
+        <v>45.31405734558442</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.87150410628888</v>
+        <v>46.48151203968003</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.85394315403943</v>
+        <v>22.04779716892158</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>35.32557026622464</v>
+        <v>34.60234751882771</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>35.56234811748618</v>
+        <v>35.081191023215</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>5.861864465244139</v>
+        <v>6.55162983840669</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.63031613919588</v>
+        <v>32.01485945760523</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.00813647281426</v>
+        <v>32.9012050033679</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>6.408066187677385</v>
+        <v>7.352839172421024</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>52.89827710789255</v>
+        <v>51.24960961146125</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>9.199520606232436</v>
+        <v>10.05196637253706</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.72047509975086</v>
+        <v>26.17101393889824</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.56873652888578</v>
+        <v>30.28919165429832</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.474915726201321</v>
+        <v>5.529987102486437</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>33.09641726852655</v>
+        <v>32.76290249980264</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>35.97912211081486</v>
+        <v>35.31242779611672</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>6.696154940156845</v>
+        <v>7.900392616130723</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>51.28385238659539</v>
+        <v>49.61101203845453</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>50.92881558132314</v>
+        <v>49.71756896259427</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>51.02267684677533</v>
+        <v>50.53658623807578</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>57.07195291756902</v>
+        <v>56.54085425813359</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>56.14476102267007</v>
+        <v>55.17565612259708</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>6.424667859114471</v>
+        <v>7.85020144377599</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>30.4550749563404</v>
+        <v>31.36718511208112</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>30.30183417856644</v>
+        <v>32.14974842038531</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>16.06797157171425</v>
+        <v>15.79348455982701</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.1532814524537</v>
+        <v>32.44715887235191</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.57743553250187</v>
+        <v>34.25862537014532</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>5.472332493318845</v>
+        <v>6.329721789171089</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.23932471757647</v>
+        <v>28.61338199753966</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.97269140903504</v>
+        <v>34.01510580821074</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.100648730432997</v>
+        <v>7.15270688031114</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>46.79553506811018</v>
+        <v>45.20036555437443</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.198255754449146</v>
+        <v>8.977002768697727</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>25.95705992385023</v>
+        <v>24.91920114944921</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.79374813685543</v>
+        <v>31.00191197815281</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>5.247982626294394</v>
+        <v>6.040746976836388</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>34.43614083268577</v>
+        <v>32.620688689037</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>41.56698861411203</v>
+        <v>40.06688944361711</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.432293293086378</v>
+        <v>6.447893605938436</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>52.87413627492717</v>
+        <v>50.27035368953136</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>54.52099333369868</v>
+        <v>52.40107476796513</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>47.95106170940961</v>
+        <v>47.09684456465146</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>54.55541735306483</v>
+        <v>52.69811996370416</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>56.81301177039039</v>
+        <v>55.51577407358712</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>8.362847457027907</v>
+        <v>9.061396901518723</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>35.2394350406717</v>
+        <v>34.24881010752723</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.66932851063548</v>
+        <v>38.01851755833408</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>12.29798802406307</v>
+        <v>12.34042286203388</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>30.30650052342904</v>
+        <v>29.36441647151493</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.37796835329924</v>
+        <v>33.18793561592435</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>5.704816296449678</v>
+        <v>6.378190788814198</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.19932016123657</v>
+        <v>27.11222468328092</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>34.24583967175305</v>
+        <v>33.52810805207376</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>5.276354524633298</v>
+        <v>6.140855629199372</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>42.86857118634424</v>
+        <v>40.91072051870893</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.95589307466502</v>
+        <v>27.53480420553292</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>25.27280947237452</v>
+        <v>24.76719163401151</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>39.39704262933881</v>
+        <v>38.54280407541946</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>42.40586838014023</v>
+        <v>41.21261460247318</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>12.70219457678571</v>
+        <v>12.6974621536187</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.96393670080269</v>
+        <v>22.5402935718223</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>30.07086579049709</v>
+        <v>29.32662584045128</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>16.84823416669891</v>
+        <v>16.61361249150165</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.77024910532439</v>
+        <v>29.15309346095838</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.31304013749903</v>
+        <v>34.81614616741347</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>5.269563043570724</v>
+        <v>5.930515034644774</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>14.12818811563043</v>
+        <v>14.09271118614818</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.00895774030544</v>
+        <v>21.52709083138654</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>6.715674835739591</v>
+        <v>7.448771200285826</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.05530193101032</v>
+        <v>29.74185714188043</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>49.64679316156094</v>
+        <v>47.41093489780087</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.39196108101359</v>
+        <v>28.6900424028659</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>45.80136914183104</v>
+        <v>44.51408676608469</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>52.08438147822874</v>
+        <v>50.58915999078877</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>12.52897288220288</v>
+        <v>12.42028667293287</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>27.24553064300019</v>
+        <v>26.2978217263253</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>39.0063192840626</v>
+        <v>37.56646593316543</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>57.58564079234117</v>
+        <v>56.19235446797322</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>53.57810754714296</v>
+        <v>51.35938324679788</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>62.39703953098126</v>
+        <v>60.16776542579798</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>61.28539322946003</v>
+        <v>59.22913492168313</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>22.30295285154166</v>
+        <v>21.66814859136167</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>55.38862330333068</v>
+        <v>53.76208137266747</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>57.87133142530837</v>
+        <v>56.02571844206074</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.89114660047419</v>
+        <v>28.03721167656157</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>41.40989730829282</v>
+        <v>40.27656020571583</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>41.35257412803923</v>
+        <v>41.01054782494048</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>6.593331916810527</v>
+        <v>7.281005557220524</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.83539664369848</v>
+        <v>40.29092151405269</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.22119610520369</v>
+        <v>40.012445198405</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>8.406784094254402</v>
+        <v>9.615403232959885</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>61.73218783559694</v>
+        <v>60.27278928890141</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>63.60962116426629</v>
+        <v>62.27477613989797</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>67.96416874133023</v>
+        <v>66.40865337366951</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>73.54761555064712</v>
+        <v>71.99804475462912</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>76.946470764097</v>
+        <v>75.06333880331319</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>30.49703581801294</v>
+        <v>29.09298848371477</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>68.89612158711354</v>
+        <v>67.18522771953134</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>69.55288831831447</v>
+        <v>68.3770768944342</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>55.76141864101297</v>
+        <v>54.70033812388678</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>49.42918970464279</v>
+        <v>47.3891863819005</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>56.14337264258687</v>
+        <v>53.93897063314793</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>60.55605862192518</v>
+        <v>58.62384332856936</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>16.10109043113926</v>
+        <v>15.69014538580293</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>51.46129215568084</v>
+        <v>50.09138958809418</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>53.98126822153123</v>
+        <v>52.90981483392929</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.91626115810714</v>
+        <v>18.44147271496595</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>37.48921880475047</v>
+        <v>36.69147286155314</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>38.98779659510972</v>
+        <v>39.28929764063619</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>5.163012284279198</v>
+        <v>6.080870241604785</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.76306892923287</v>
+        <v>35.21513468922845</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>38.7642091897786</v>
+        <v>39.03067044654644</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>8.193707978027</v>
+        <v>8.957914428787113</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>57.12165322034443</v>
+        <v>55.46707302842128</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>64.03948259884562</v>
+        <v>63.16825555709751</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>64.41219125762349</v>
+        <v>63.06616446207738</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>71.30238976089828</v>
+        <v>69.43846562774876</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>77.21231204821993</v>
+        <v>75.62567400273177</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>21.44052511760357</v>
+        <v>20.70060345954678</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>65.07596295003344</v>
+        <v>62.86347816807961</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>67.03967865844554</v>
+        <v>65.94387540038444</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>54.33495386124999</v>
+        <v>52.77170616565901</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>33.56810748294057</v>
+        <v>32.09770661992361</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>40.96623602062984</v>
+        <v>39.27683657148147</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>47.11130620390669</v>
+        <v>45.70119872785921</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>12.87884869043441</v>
+        <v>12.6707125208641</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>47.92489738064793</v>
+        <v>45.50371315782276</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>53.0978753107354</v>
+        <v>51.64346654843858</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>15.61905611048059</v>
+        <v>15.37844592661643</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.67629595655896</v>
+        <v>36.91003383266752</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>42.09131760240046</v>
+        <v>41.56034059340435</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.075638602792665</v>
+        <v>6.749411535767379</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>37.74305942142711</v>
+        <v>36.22963447140306</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>44.41490539778626</v>
+        <v>43.68269608720675</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>6.425661723603373</v>
+        <v>7.272271885264097</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>54.50225626983024</v>
+        <v>52.36511871133017</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>65.24481547379577</v>
+        <v>63.87009406656119</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>59.44675465180884</v>
+        <v>57.0626723994466</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>65.84347133751209</v>
+        <v>64.03353697690129</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>75.67220819858673</v>
+        <v>73.98171612495861</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>17.08779826970579</v>
+        <v>16.31736296553448</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>64.69548582742104</v>
+        <v>61.96604050261971</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>70.82257557162394</v>
+        <v>69.16044257243703</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>12.4655911148384</v>
+        <v>13.70900931844077</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>17.50627693264536</v>
+        <v>18.54085087731525</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.96025596313664</v>
+        <v>25.1505399637003</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>3.127519197722005</v>
+        <v>4.285130499058251</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>13.84489545511556</v>
+        <v>15.17635776525119</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>16.01403707031716</v>
+        <v>17.31031219572504</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>5.456272404198657</v>
+        <v>6.859385840564247</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>30.29926930732501</v>
+        <v>31.48397086534429</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>33.61252884935402</v>
+        <v>34.90068921980328</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.6841741907912</v>
+        <v>18.19779021786197</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.31021377175168</v>
+        <v>21.87103472620498</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>21.72255903166599</v>
+        <v>23.06506553109725</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.2759838263423</v>
+        <v>13.56765446206734</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.08237415687126</v>
+        <v>17.15770325519795</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.76322809553665</v>
+        <v>27.97531572073568</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.643622376130104</v>
+        <v>10.8637759952198</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>21.47836863812673</v>
+        <v>22.44874152080947</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>24.35540271333792</v>
+        <v>25.58039340097211</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>1.870953501904975</v>
+        <v>3.095682181685849</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>8.114440070102162</v>
+        <v>9.619978648873307</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>11.09682264831398</v>
+        <v>12.64937785889521</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>3.45444419763999</v>
+        <v>4.502573741112723</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>19.4881387297511</v>
+        <v>20.75495036534402</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.00944804574006</v>
+        <v>17.35433227559914</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>25.2605564120248</v>
+        <v>27.02986939637962</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>25.81092902488063</v>
+        <v>27.04713961856388</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.739233709053707</v>
+        <v>4.166356658442027</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.30983731686642</v>
+        <v>26.95301508773601</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.47550195322497</v>
+        <v>28.05499621550535</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>5.778308434917705</v>
+        <v>6.966799078773061</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>39.49095584276904</v>
+        <v>40.85044090980935</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>39.08727342965948</v>
+        <v>40.41764313134798</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>37.28877969970588</v>
+        <v>39.40816763686411</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>42.65972778859123</v>
+        <v>44.49537502577999</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>45.02989981466362</v>
+        <v>46.23122923740793</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>17.97678732392518</v>
+        <v>19.80698257610573</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>40.97633911064366</v>
+        <v>42.30138949781384</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.71569478419256</v>
+        <v>44.72438625072196</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>13.97837513457009</v>
+        <v>15.21078911636464</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.13266991477927</v>
+        <v>27.67385740101332</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.2502283540446</v>
+        <v>29.59542272430368</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>2.060373704093909</v>
+        <v>3.493605730504303</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>23.46237021713938</v>
+        <v>25.22787353533232</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.74490096678392</v>
+        <v>27.57715205102213</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>3.477699343878673</v>
+        <v>4.693505880719375</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>39.86797852431989</v>
+        <v>41.84169743404232</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>6.770300505781488</v>
+        <v>7.854866428376294</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>18.69280608100854</v>
+        <v>19.68652195315819</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>23.52864982708104</v>
+        <v>24.59535154414631</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>2.655450846443053</v>
+        <v>3.775512012548468</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>24.18153751647487</v>
+        <v>25.84979013098983</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.06926497608121</v>
+        <v>27.59916558355041</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.357152482268209</v>
+        <v>8.096506281671932</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>39.28136788596365</v>
+        <v>40.33972800518253</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>41.07117606989802</v>
+        <v>42.2207544197959</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>41.4181944021279</v>
+        <v>43.00097431775232</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>43.9166874199418</v>
+        <v>46.24553668735447</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.96179753047524</v>
+        <v>48.03137631600934</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>6.771419617657433</v>
+        <v>7.485296690688134</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.55957326008636</v>
+        <v>30.1418218834498</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>33.15284304198331</v>
+        <v>34.09134958356082</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>8.525880544738698</v>
+        <v>9.796733330148022</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>24.2586991420955</v>
+        <v>25.56237871490944</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.00255571086412</v>
+        <v>29.22068100788735</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>1.619495645392309</v>
+        <v>3.152937143265316</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.60773751714019</v>
+        <v>20.32322023872938</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.93644226410164</v>
+        <v>28.60095832332096</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>4.544463570146245</v>
+        <v>5.518204715221586</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>33.20306707295838</v>
+        <v>34.66389770052038</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.302438548782181</v>
+        <v>6.359824525784855</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>15.32865144169563</v>
+        <v>16.4841931326057</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.38135981854764</v>
+        <v>23.60367549744115</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>2.061758605931949</v>
+        <v>3.33661078808683</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.81649622802332</v>
+        <v>23.87177224339257</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.08896950626579</v>
+        <v>30.45988239352138</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>2.52593905074832</v>
+        <v>3.870714047742585</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>34.95951022227293</v>
+        <v>36.45229511277631</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>40.5734569402977</v>
+        <v>41.88577132109502</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>33.86047487039413</v>
+        <v>35.57481774579416</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>37.79146099333503</v>
+        <v>39.65543332155453</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.74703063978505</v>
+        <v>44.13956496199234</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>5.578396171506746</v>
+        <v>6.740168391261484</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.2547878076379</v>
+        <v>28.97385285356199</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.99105657268372</v>
+        <v>38.20894285856316</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>5.604842654002844</v>
+        <v>7.032438488749349</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>20.55477246638633</v>
+        <v>21.97959002561349</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.25755366950961</v>
+        <v>27.90091689774755</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>1.702997988059277</v>
+        <v>3.229599171881542</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>17.27515239484918</v>
+        <v>18.84229964826797</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.16814683260952</v>
+        <v>27.54531238547176</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>2.248353187535919</v>
+        <v>3.567338571032277</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.07842715860388</v>
+        <v>29.76163411459398</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>19.78365704652074</v>
+        <v>21.13848277148303</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>16.66226375188407</v>
+        <v>18.27044372161495</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>27.9397087713002</v>
+        <v>29.72178132899722</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>30.25873867188684</v>
+        <v>31.94646463479598</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>7.206199729059986</v>
+        <v>8.193833099127758</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>14.57950734368496</v>
+        <v>16.06302667643899</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>20.29687330522362</v>
+        <v>21.84931607607385</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.36013518563834</v>
+        <v>14.59708331397312</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.65804388361621</v>
+        <v>25.90577181208453</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.02712731421006</v>
+        <v>32.3578143422573</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>1.668575254842722</v>
+        <v>3.032769357174367</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>8.548018884462458</v>
+        <v>9.784955778961667</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>15.54528044711529</v>
+        <v>16.5647914025861</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>4.566217499997638</v>
+        <v>5.528645515889178</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>24.35149280897291</v>
+        <v>24.60362783431945</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>39.92189524509616</v>
+        <v>39.75208674237872</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.54693599221246</v>
+        <v>23.40355083588101</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>35.73246465989202</v>
+        <v>36.98672656403929</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>40.95067649723686</v>
+        <v>42.06899662111247</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>8.03445155586472</v>
+        <v>9.040059903126448</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>20.54792222498068</v>
+        <v>21.19920405599176</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>30.63948266522034</v>
+        <v>31.15037759460775</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>44.43748748334814</v>
+        <v>46.22435855734288</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>40.80403726078694</v>
+        <v>42.34269447100932</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>48.50491208038618</v>
+        <v>49.95207001989596</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>46.4731426947836</v>
+        <v>48.25050626467198</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>13.96761693424292</v>
+        <v>15.24554110294707</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>43.33334244054046</v>
+        <v>45.04674303425251</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>45.77820474605679</v>
+        <v>47.33470243174128</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>24.13135267298111</v>
+        <v>24.12364722935271</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.0539868732036</v>
+        <v>36.29867559119975</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>38.57093711221974</v>
+        <v>39.0561080368777</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>3.643171462570447</v>
+        <v>4.969041201080127</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.27580680811877</v>
+        <v>36.22334220496762</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.47041348046116</v>
+        <v>37.6034210278637</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>9.412126080786603</v>
+        <v>10.07351982215928</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>56.48054119213207</v>
+        <v>56.70388790168506</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>57.3591964827615</v>
+        <v>57.92437646214522</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>65.97426400515052</v>
+        <v>65.7162242620542</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>69.6430950878098</v>
+        <v>69.84322252360504</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>72.32493752416744</v>
+        <v>72.13109843036841</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.7904382766579</v>
+        <v>28.68667404292164</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>63.11478064857509</v>
+        <v>63.50207252954311</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>65.8365166654651</v>
+        <v>66.137414415303</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>45.02995833000647</v>
+        <v>46.76659297487119</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>34.79120482387819</v>
+        <v>36.334606627407</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>41.48025230937354</v>
+        <v>42.96853601199987</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>46.56750715769033</v>
+        <v>48.3325119000591</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>7.975279292074063</v>
+        <v>9.304958898603278</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>40.07277023426129</v>
+        <v>41.51613369590569</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>44.11745226789018</v>
+        <v>45.651855079542</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>15.80434669054749</v>
+        <v>15.89283542495601</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.7304011004569</v>
+        <v>33.02899839273547</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>37.40463617299275</v>
+        <v>38.01876336626556</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>2.320741484224374</v>
+        <v>3.743810917075717</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>31.14197093202595</v>
+        <v>32.20428556218831</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.05222844897751</v>
+        <v>37.12614502960583</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>9.355319835485954</v>
+        <v>9.369680592569146</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>52.54841857410879</v>
+        <v>52.31622235963926</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>60.27880204432717</v>
+        <v>60.72363649708903</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>61.49609679983078</v>
+        <v>61.08170968745578</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>67.82465898910922</v>
+        <v>67.41306373709472</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>73.16465293015887</v>
+        <v>73.14689499784215</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>19.95570258864543</v>
+        <v>19.33471975099976</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>60.55392879669269</v>
+        <v>60.49763014411067</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>66.18847030015367</v>
+        <v>66.3180650404617</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>42.89640104446433</v>
+        <v>44.34900335604307</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>21.00854250219561</v>
+        <v>22.55670328867088</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>27.48319048949693</v>
+        <v>29.10785920916946</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>34.2793490596172</v>
+        <v>35.98330040039504</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>5.385158029798951</v>
+        <v>6.780735657554853</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.92668757435354</v>
+        <v>35.94784882590494</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>42.32775669435976</v>
+        <v>43.67694121915451</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>12.37766251471101</v>
+        <v>12.94279143115277</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>32.2595618996781</v>
+        <v>32.00262686153795</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>39.07150533422167</v>
+        <v>39.49690255805625</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>2.857533560677364</v>
+        <v>4.181745706607412</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>30.72630118341076</v>
+        <v>31.11063447737988</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>39.43054525536716</v>
+        <v>40.15416558151922</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>5.029372035161739</v>
+        <v>5.86753076507237</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>48.26931888062369</v>
+        <v>47.84452989746502</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>60.57237488224496</v>
+        <v>60.86569220513134</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>52.41767173154538</v>
+        <v>51.8322272446508</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.16038591990156</v>
+        <v>60.05565160176741</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>69.43744498891846</v>
+        <v>69.83428843189762</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>11.76046442591966</v>
+        <v>12.21316381314832</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>55.02697281201914</v>
+        <v>54.89242024971043</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>66.63852959478241</v>
+        <v>66.66730698271878</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>11.08308474787861</v>
+        <v>11.49035420330341</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>16.10426066056172</v>
+        <v>15.09169233586459</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.02750472582072</v>
+        <v>25.65714308834119</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>2.436379828085322</v>
+        <v>2.527672140958938</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>15.44925372916678</v>
+        <v>15.14749725327855</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>17.69337394292667</v>
+        <v>17.35164304732755</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.768950694226234</v>
+        <v>7.713948300387347</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.06187312586734</v>
+        <v>33.54416354869078</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.21901839074453</v>
+        <v>36.4189633538613</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>14.5810780571858</v>
+        <v>14.48131345350435</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>20.33096415913212</v>
+        <v>19.23448561353042</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>24.70613288643107</v>
+        <v>22.44510531087884</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.11261426567812</v>
+        <v>16.05042557569089</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>13.28904628034894</v>
+        <v>13.35485234816479</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.83343331623638</v>
+        <v>26.70411104952901</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.6779258027779</v>
+        <v>10.97671667480244</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.63802566014185</v>
+        <v>27.53853287995317</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.47658426061106</v>
+        <v>35.49716205394485</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>1.91613767501704</v>
+        <v>2.27955911741946</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>10.51592763214192</v>
+        <v>10.59977247138971</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.89267742480261</v>
+        <v>15.14966581903974</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.814968825213541</v>
+        <v>1.964128229528871</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.46437847639334</v>
+        <v>21.72605618686719</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>19.08666851295398</v>
+        <v>19.6203738184672</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.0552624129526</v>
+        <v>29.20282424048579</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.75555339922785</v>
+        <v>28.85495427178502</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>1.544734196568932</v>
+        <v>2.049494609076508</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.55023286425009</v>
+        <v>32.06705018583093</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>35.76839573985288</v>
+        <v>34.83069419436364</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>6.434169462520121</v>
+        <v>6.486485192666748</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>48.91075504112699</v>
+        <v>48.49763726462907</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>46.24367964361487</v>
+        <v>45.70413744194693</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>46.96157894704048</v>
+        <v>46.80950713825116</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>54.735031684756</v>
+        <v>54.85076438796467</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>54.2757725266454</v>
+        <v>54.37897266293398</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>20.29533230983567</v>
+        <v>22.59705049213942</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.20875995056352</v>
+        <v>39.76327229456261</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>43.52320250884333</v>
+        <v>42.85970340247047</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>19.19776790202566</v>
+        <v>19.4812306484699</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>39.0296459358774</v>
+        <v>37.08421854936324</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>42.35320614622394</v>
+        <v>40.91345451619683</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>3.499648794941578</v>
+        <v>3.874411516267461</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>34.50243408294332</v>
+        <v>33.15265428781498</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>41.67427813910638</v>
+        <v>40.7052105463468</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>3.355634178979241</v>
+        <v>3.458425331872949</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>58.20438595061179</v>
+        <v>57.76485355375686</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>7.338199073218423</v>
+        <v>7.800571733338405</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>19.94824582928188</v>
+        <v>20.70463979068037</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>25.49213379782821</v>
+        <v>26.17995611519733</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>0.1554910163761356</v>
+        <v>0.53266104689569</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.58831160598414</v>
+        <v>29.52130627425486</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.62306522614333</v>
+        <v>33.19335829994323</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>3.861527485474792</v>
+        <v>4.528080071484528</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>45.01663820481589</v>
+        <v>46.02243311188445</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>48.72963835311341</v>
+        <v>49.77689318651964</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>49.80792074592887</v>
+        <v>50.0932455247011</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>55.60943338785475</v>
+        <v>56.28123416051608</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>57.24551110185745</v>
+        <v>57.80823730620043</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>8.932707230977389</v>
+        <v>8.691161534078716</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>30.15991979534767</v>
+        <v>31.03960932180706</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>35.19071466483447</v>
+        <v>36.12987700612062</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>10.67984831720267</v>
+        <v>11.21633909702375</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>32.32089545742356</v>
+        <v>32.17981381011251</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>41.77420493170301</v>
+        <v>40.48771665222824</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>2.144099024420971</v>
+        <v>2.814148134035108</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.79578681047516</v>
+        <v>25.94204002706422</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>41.277878522729</v>
+        <v>40.83280256167573</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>1.643907108449643</v>
+        <v>2.541550081655618</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>45.45815201637782</v>
+        <v>43.56132242817801</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>4.638824316683987</v>
+        <v>5.086534571841867</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>16.58298976595891</v>
+        <v>17.22876299213698</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.37022521549875</v>
+        <v>24.66784501974373</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>0.8540254045101463</v>
+        <v>1.172134876599802</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.42211215894534</v>
+        <v>29.16924796077419</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.11522893578638</v>
+        <v>35.27101893724694</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>2.144113487996176</v>
+        <v>2.39477223334498</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>43.80168976403068</v>
+        <v>43.89596025960363</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>49.04920568546073</v>
+        <v>49.01591667888405</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.87084327661233</v>
+        <v>40.48876354681461</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>45.38311408858551</v>
+        <v>46.10692022460952</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>48.90088485581937</v>
+        <v>50.39396963855111</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>7.203659752458297</v>
+        <v>7.23709446896088</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>22.84068533276035</v>
+        <v>23.48084603802803</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>35.99532243241789</v>
+        <v>36.64098819866529</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>7.894114770047967</v>
+        <v>8.269066683697918</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.06118824166013</v>
+        <v>28.36453150925836</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>39.84980143577384</v>
+        <v>38.57825962663131</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>3.038239216691448</v>
+        <v>3.533695734475209</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>24.77389857962115</v>
+        <v>24.83094899433998</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>40.66580647728144</v>
+        <v>40.09500671868601</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>0.608319182297187</v>
+        <v>1.109610325431831</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>40.35327772090191</v>
+        <v>39.88962092254147</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.08200370467764</v>
+        <v>26.93880231325343</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.45894614965651</v>
+        <v>22.63383894262752</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>46.93408912742356</v>
+        <v>44.83578910916495</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>54.46675004789117</v>
+        <v>51.45028254104369</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>6.141988907232019</v>
+        <v>6.394215210469198</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>18.29873550863771</v>
+        <v>17.99868663724217</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.03668448465657</v>
+        <v>27.84886386876319</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.54847936846903</v>
+        <v>12.46367676779956</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.30159205172037</v>
+        <v>26.73613055358991</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>39.0814301803119</v>
+        <v>37.71786505855643</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>1.856131661707138</v>
+        <v>2.345209678981867</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>7.82964642784691</v>
+        <v>8.210615748562862</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>13.3513729764768</v>
+        <v>13.8788310063768</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>2.527388653626033</v>
+        <v>2.631675657417318</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.06377854861976</v>
+        <v>21.26799753018153</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>38.81158598537831</v>
+        <v>38.37902307301441</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.10399269066031</v>
+        <v>24.99724087787714</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>49.45898993258633</v>
+        <v>47.85856065301981</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>57.26889358334338</v>
+        <v>55.09516129878189</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>6.014253369942015</v>
+        <v>6.199702637572848</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>19.63241388329275</v>
+        <v>18.93836203613169</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.284617173319</v>
+        <v>28.6590897593101</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>68.37555302671427</v>
+        <v>66.23218662744873</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>61.26695153896832</v>
+        <v>61.34207210794088</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>76.6333744251794</v>
+        <v>73.35484728310898</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>78.51256776701074</v>
+        <v>74.99325699233874</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>21.98388160990427</v>
+        <v>21.62833362293979</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>71.80162772352665</v>
+        <v>70.9442132093177</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>77.16753060808804</v>
+        <v>73.53717636465133</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.7350854787411</v>
+        <v>26.26849307479085</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>45.28778247211429</v>
+        <v>43.69538798834628</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>49.17302287735463</v>
+        <v>48.0755174583908</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>4.846737674599815</v>
+        <v>5.221047858544658</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>42.05151987000831</v>
+        <v>40.74947996225681</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>50.67801538672906</v>
+        <v>49.18682601842953</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>8.47146996200442</v>
+        <v>8.079699898960662</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>74.63196048124146</v>
+        <v>72.84171302445712</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>77.60158894863837</v>
+        <v>75.7016194915316</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>83.19676728381501</v>
+        <v>81.07804779345754</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>91.1130577074224</v>
+        <v>88.79595817837215</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>94.94470565813361</v>
+        <v>92.60813769594046</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.12654219702987</v>
+        <v>33.46861082250017</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>89.78728211281806</v>
+        <v>86.66526048731534</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>91.59524811374254</v>
+        <v>88.88141333450923</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>70.34582343360802</v>
+        <v>68.55159225680696</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>47.00203784271002</v>
+        <v>45.22507150725124</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>59.22761861028768</v>
+        <v>57.54357056072635</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>77.46303785984131</v>
+        <v>75.2585048946215</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>12.66214312393786</v>
+        <v>13.21349973807825</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>62.21129365472035</v>
+        <v>60.08733849235175</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>73.46722487181675</v>
+        <v>70.4841890704044</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>12.87332506006911</v>
+        <v>13.46869011055005</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>37.70436228122151</v>
+        <v>37.00868182666468</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>45.5895963292385</v>
+        <v>45.1662778256058</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>2.713474368509182</v>
+        <v>3.209199521556755</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.39491565119071</v>
+        <v>39.15350329937431</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>51.63984729031006</v>
+        <v>50.49459469266623</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>3.066268189469358</v>
+        <v>4.079555739143384</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>64.35138745804133</v>
+        <v>63.3887781704956</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>78.97866371958142</v>
+        <v>77.77109958043724</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>75.49788917644128</v>
+        <v>74.50024508689467</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>86.59524614168345</v>
+        <v>84.70470106965615</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>93.69509137224594</v>
+        <v>92.21858412492318</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>20.50659165875705</v>
+        <v>20.37961543029625</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>81.97418062345804</v>
+        <v>77.95292974571284</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>89.71798314917635</v>
+        <v>85.96937970750101</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>68.40233756474726</v>
+        <v>65.7739353223598</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.36251937211131</v>
+        <v>30.60114013215623</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>43.412485938625</v>
+        <v>41.90370748811972</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>60.51757538060459</v>
+        <v>57.77061534223319</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>8.77791357682629</v>
+        <v>9.13732367280674</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>54.48653511161889</v>
+        <v>52.6736069197778</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>69.09257380263911</v>
+        <v>66.28410468533062</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.39101298769284</v>
+        <v>11.62142720442999</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>37.99677995519211</v>
+        <v>37.01157767462248</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>50.5394431894623</v>
+        <v>49.70253581923976</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>3.843860688130583</v>
+        <v>4.235910746919952</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.38689981554725</v>
+        <v>37.67429597452879</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>53.97683733263265</v>
+        <v>52.63786381002504</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>1.765922381662275</v>
+        <v>1.948039400350527</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>60.66324861445539</v>
+        <v>58.59668165204536</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>80.7982001219337</v>
+        <v>79.13777687919753</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>68.03871222783897</v>
+        <v>65.64393550135902</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>83.57668903335173</v>
+        <v>79.42352125947212</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>95.39823338830928</v>
+        <v>93.33215091454271</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>14.96148916813906</v>
+        <v>14.19404500290785</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>78.11269034939451</v>
+        <v>74.3953850821659</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>88.80012626349446</v>
+        <v>86.132587136841</v>
       </c>
     </row>
   </sheetData>
